--- a/hebrewOutputs/hebrewComparison_12.xlsx
+++ b/hebrewOutputs/hebrewComparison_12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="148">
   <si>
     <t>Sentence</t>
   </si>
@@ -31,18 +31,21 @@
     <t>personal</t>
   </si>
   <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t>מה שלומך?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">היי, </t>
+  </si>
+  <si>
+    <t>יש איזה...</t>
+  </si>
+  <si>
     <t>trans</t>
   </si>
   <si>
-    <t>מה שלומך?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">היי, </t>
-  </si>
-  <si>
-    <t>יש איזה...</t>
-  </si>
-  <si>
     <t>gives-med</t>
   </si>
   <si>
@@ -64,18 +67,21 @@
     <t>יואב כן כן.</t>
   </si>
   <si>
+    <t>agree</t>
+  </si>
+  <si>
     <t>נכון אנחנו בחדר הנכון.</t>
   </si>
   <si>
     <t>gives-other</t>
   </si>
   <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t>אתה בחדר הנכון.</t>
   </si>
   <si>
+    <t>disagree</t>
+  </si>
+  <si>
     <t>שלום לך קוראים לי דוק.</t>
   </si>
   <si>
@@ -85,129 +91,123 @@
     <t>סוס זה שם פרטי.</t>
   </si>
   <si>
+    <t>איך השם?</t>
+  </si>
+  <si>
+    <t>?med</t>
+  </si>
+  <si>
+    <t>סוס, סוס.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">סוס. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">דוק זה שם משפחה </t>
+  </si>
+  <si>
+    <t>כן, אני אחד הרופאים מהמחלקה.</t>
+  </si>
+  <si>
+    <t>אוקיי בסדר.</t>
+  </si>
+  <si>
+    <t>איך את מרגישה היום?</t>
+  </si>
+  <si>
+    <t>אא אני פחות חשוב.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> איך יואב מרגיש עכשיו, זה הכי חשוב.</t>
+  </si>
+  <si>
+    <t>אני באתי לפה בקשר ליואב.</t>
+  </si>
+  <si>
+    <t>כן, מה בסוף?</t>
+  </si>
+  <si>
+    <t>אא אני רציתי לשאול, מה היה לו בשבוע האחרון?</t>
+  </si>
+  <si>
+    <t>?opinion</t>
+  </si>
+  <si>
+    <t>לא. אני חשבתי שאתם תגידו לי מה איתו.</t>
+  </si>
+  <si>
+    <t>לא, אני רוצה לשמוע את אא... עוד פעם...</t>
+  </si>
+  <si>
+    <t>orient</t>
+  </si>
+  <si>
+    <t>legit</t>
+  </si>
+  <si>
+    <t>אין אין שום דבר או חדש. אמרתי הוא היה אמרתי לכם הוא בא ב... עם וירוס בבטן.</t>
+  </si>
+  <si>
+    <t>כן,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ואני דואגת נורא. פחדתי שהוא יתעלף או יתייבש או ... </t>
+  </si>
+  <si>
+    <t>concern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">זה וירוס כן. </t>
+  </si>
+  <si>
+    <t>מה מה מה איתו? קיבל נוזלים? אא, מה?</t>
+  </si>
+  <si>
+    <t>הוא קיבל כמה כל מיני תרופות כל מיני נוזלים ותרופת והמצב שלו יציב.</t>
+  </si>
+  <si>
+    <t>(לא נשמע)</t>
+  </si>
+  <si>
+    <t>בסדר? יופי. יופי.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הוא יציב והוא בסדר. </t>
+  </si>
+  <si>
     <t>r/o</t>
   </si>
   <si>
-    <t>איך השם?</t>
-  </si>
-  <si>
-    <t>?med</t>
-  </si>
-  <si>
-    <t>סוס, סוס.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">סוס. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">דוק זה שם משפחה </t>
-  </si>
-  <si>
-    <t>כן, אני אחד הרופאים מהמחלקה.</t>
-  </si>
-  <si>
-    <t>אוקיי בסדר.</t>
-  </si>
-  <si>
-    <t>bc</t>
-  </si>
-  <si>
-    <t>איך את מרגישה היום?</t>
-  </si>
-  <si>
-    <t>אא אני פחות חשוב.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> איך יואב מרגיש עכשיו, זה הכי חשוב.</t>
-  </si>
-  <si>
-    <t>אני באתי לפה בקשר ליואב.</t>
-  </si>
-  <si>
-    <t>כן, מה בסוף?</t>
+    <t>אני... האמת היא שכבר אני לא יכולה להיות בבית איתו ככה.</t>
+  </si>
+  <si>
+    <t>באתי לדבר אתך גם על התוצאות של הבדיקות ו...</t>
+  </si>
+  <si>
+    <t>עשיתם בדיקות וירוס כזה?</t>
   </si>
   <si>
     <t>checks</t>
   </si>
   <si>
-    <t>אא אני רציתי לשאול, מה היה לו בשבוע האחרון?</t>
-  </si>
-  <si>
-    <t>?opinion</t>
-  </si>
-  <si>
-    <t>לא. אני חשבתי שאתם תגידו לי מה איתו.</t>
-  </si>
-  <si>
-    <t>disagree</t>
-  </si>
-  <si>
-    <t>לא, אני רוצה לשמוע את אא... עוד פעם...</t>
-  </si>
-  <si>
-    <t>orient</t>
-  </si>
-  <si>
-    <t>emp</t>
-  </si>
-  <si>
-    <t>אין אין שום דבר או חדש. אמרתי הוא היה אמרתי לכם הוא בא ב... עם וירוס בבטן.</t>
-  </si>
-  <si>
-    <t>כן,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ואני דואגת נורא. פחדתי שהוא יתעלף או יתייבש או ... </t>
-  </si>
-  <si>
-    <t>concern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">זה וירוס כן. </t>
-  </si>
-  <si>
-    <t>מה מה מה איתו? קיבל נוזלים? אא, מה?</t>
-  </si>
-  <si>
-    <t>הוא קיבל כמה כל מיני תרופות כל מיני נוזלים ותרופת והמצב שלו יציב.</t>
-  </si>
-  <si>
-    <t>(לא נשמע)</t>
-  </si>
-  <si>
-    <t>בסדר? יופי. יופי.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">הוא יציב והוא בסדר. </t>
-  </si>
-  <si>
-    <t>אני... האמת היא שכבר אני לא יכולה להיות בבית איתו ככה.</t>
+    <t>כן.</t>
+  </si>
+  <si>
+    <t>ומה מה מה מדובר?</t>
+  </si>
+  <si>
+    <t>אא עכשיו, לפני כך אני רוצה לשאול אותך באמת רוצה ש (לא נשמע) אחד שני מהמשפחה? אבא אח?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אם יש לו אח? </t>
+  </si>
+  <si>
+    <t>לא. הוא ילד היחיד שלנו.</t>
   </si>
   <si>
     <t>gives-l/s</t>
   </si>
   <si>
-    <t>באתי לדבר אתך גם על התוצאות של הבדיקות ו...</t>
-  </si>
-  <si>
-    <t>עשיתם בדיקות וירוס כזה?</t>
-  </si>
-  <si>
-    <t>כן.</t>
-  </si>
-  <si>
-    <t>ומה מה מה מדובר?</t>
-  </si>
-  <si>
-    <t>אא עכשיו, לפני כך אני רוצה לשאול אותך באמת רוצה ש (לא נשמע) אחד שני מהמשפחה? אבא אח?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אם יש לו אח? </t>
-  </si>
-  <si>
-    <t>לא. הוא ילד היחיד שלנו.</t>
-  </si>
-  <si>
     <t>ילד יחיד?</t>
   </si>
   <si>
@@ -232,6 +232,9 @@
     <t>זה שאלתי בשבילך גברת רונן אם אם אם את מרגישה יותר טוב עם הבעל שלך לצידך או... אחד מבני המשפחה שיהיו פה.</t>
   </si>
   <si>
+    <t>approve</t>
+  </si>
+  <si>
     <t>הא,</t>
   </si>
   <si>
@@ -283,96 +286,99 @@
     <t>אז אני אז אני לקרוא לבעלי או לא? אני עכשיו כבר לא כל כך יודעת.</t>
   </si>
   <si>
+    <t xml:space="preserve"> אני מנסה להבין. מה מה קרה? </t>
+  </si>
+  <si>
+    <t>אא,</t>
+  </si>
+  <si>
+    <t>וואוו.</t>
+  </si>
+  <si>
+    <t>התוצאות שהיו לנו אא בבדיקות הם הם אומרים לנו שרונן- שיואב,</t>
+  </si>
+  <si>
+    <t>הבן שלי יואב.</t>
+  </si>
+  <si>
+    <t>יואב הם,</t>
+  </si>
+  <si>
+    <t>יואב הוא ילד בן חמש.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כן ילד בן חמש. </t>
+  </si>
+  <si>
+    <t>מה מצאו? מה קרה?</t>
+  </si>
+  <si>
+    <t>יש לו סכרת.</t>
+  </si>
+  <si>
+    <t>מה יש לו?</t>
+  </si>
+  <si>
+    <t>סכרת. סכרת נעורים זה אחד מסוגי הסכרת שעלול גם לגרום לילדים קטנים זה להופיע בגיל הזה אא זה ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אני לא מצליחה רגע להבין. ליואב הבן שלי אין לו סכרת ואני לא מבינה מה הולך פה. </t>
+  </si>
+  <si>
+    <t>אא אני אסביר קצת. אא יש כל מיני דגש של סכרת לא רק בגיל שאנחנו מכירים בגיל חמישים, שישים, שבעים.</t>
+  </si>
+  <si>
+    <t>לא. אני יודעת שיש גם סכרת נעורים סכרת... אני יודעת שיש לילדים אבל ליואב אין. זה מה שאני מסבי... זה מה שאני אומרת שאין לו.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אא לצערי הרב אחרי הבדיקות שעשינו הם הם אנחנו כמעט בטוחים אנחנו בטוחים שיש לו סכרת נעורים זה... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">איך זה יכול להיות? </t>
+  </si>
+  <si>
+    <t>מכל מיני דברים,</t>
+  </si>
+  <si>
+    <t>אין אצלנו, לא סכרת בכלל במשפחה,</t>
+  </si>
+  <si>
+    <t>יש במשפחה?</t>
+  </si>
+  <si>
+    <t>לא וגם לא... גם גם מקפידים על תזונה ו...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">... (לא נשמע) כזה שגם במשפחות שאין בהם סכרת של... אין סכרת במשפחה גם יכול להיות שאחד מ... מהבנים אחד מהבנות אא ש... </t>
+  </si>
+  <si>
+    <t>c-l/s-p/s</t>
+  </si>
+  <si>
+    <t>זה בטוח זה הגיוני הדבר הזה?</t>
+  </si>
+  <si>
+    <t>ואיך יש לי ילד יואב בן חמש יש לי ילד חולה חמש שנים ואני לא יודעת מזה? זה הגיוני?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לא. זה לא אומר שהוא חולה כבר חמש שנים אא הוא פשוט אא עלינו על זה בזמן בזמן בזמן הזה וזה לא אומר שהוא חולה כבר חמש שנים </t>
+  </si>
+  <si>
+    <t>וזה יכול להיות שהוא אא ש... שהמחלה התחילה לפני שבועות לפני שנה לפני לפני לפני...</t>
+  </si>
+  <si>
+    <t>... יכול להיות שהוא כל הזמן הזה?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">את זה אנחנו לא יכולים לדעת </t>
+  </si>
+  <si>
+    <t>אני הייתי צריכה בתור אמא שלו להביא אותו לבדיקות קודם?</t>
+  </si>
+  <si>
     <t>?reassure</t>
   </si>
   <si>
-    <t xml:space="preserve"> אני מנסה להבין. מה מה קרה? </t>
-  </si>
-  <si>
-    <t>אא,</t>
-  </si>
-  <si>
-    <t>וואוו.</t>
-  </si>
-  <si>
-    <t>התוצאות שהיו לנו אא בבדיקות הם הם אומרים לנו שרונן- שיואב,</t>
-  </si>
-  <si>
-    <t>הבן שלי יואב.</t>
-  </si>
-  <si>
-    <t>יואב הם,</t>
-  </si>
-  <si>
-    <t>יואב הוא ילד בן חמש.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">כן ילד בן חמש. </t>
-  </si>
-  <si>
-    <t>מה מצאו? מה קרה?</t>
-  </si>
-  <si>
-    <t>יש לו סכרת.</t>
-  </si>
-  <si>
-    <t>מה יש לו?</t>
-  </si>
-  <si>
-    <t>סכרת. סכרת נעורים זה אחד מסוגי הסכרת שעלול גם לגרום לילדים קטנים זה להופיע בגיל הזה אא זה ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אני לא מצליחה רגע להבין. ליואב הבן שלי אין לו סכרת ואני לא מבינה מה הולך פה. </t>
-  </si>
-  <si>
-    <t>אא אני אסביר קצת. אא יש כל מיני דגש של סכרת לא רק בגיל שאנחנו מכירים בגיל חמישים, שישים, שבעים.</t>
-  </si>
-  <si>
-    <t>לא. אני יודעת שיש גם סכרת נעורים סכרת... אני יודעת שיש לילדים אבל ליואב אין. זה מה שאני מסבי... זה מה שאני אומרת שאין לו.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אא לצערי הרב אחרי הבדיקות שעשינו הם הם אנחנו כמעט בטוחים אנחנו בטוחים שיש לו סכרת נעורים זה... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">איך זה יכול להיות? </t>
-  </si>
-  <si>
-    <t>מכל מיני דברים,</t>
-  </si>
-  <si>
-    <t>אין אצלנו, לא סכרת בכלל במשפחה,</t>
-  </si>
-  <si>
-    <t>יש במשפחה?</t>
-  </si>
-  <si>
-    <t>לא וגם לא... גם גם מקפידים על תזונה ו...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">... (לא נשמע) כזה שגם במשפחות שאין בהם סכרת של... אין סכרת במשפחה גם יכול להיות שאחד מ... מהבנים אחד מהבנות אא ש... </t>
-  </si>
-  <si>
-    <t>זה בטוח זה הגיוני הדבר הזה?</t>
-  </si>
-  <si>
-    <t>ואיך יש לי ילד יואב בן חמש יש לי ילד חולה חמש שנים ואני לא יודעת מזה? זה הגיוני?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">לא. זה לא אומר שהוא חולה כבר חמש שנים אא הוא פשוט אא עלינו על זה בזמן בזמן בזמן הזה וזה לא אומר שהוא חולה כבר חמש שנים </t>
-  </si>
-  <si>
-    <t>וזה יכול להיות שהוא אא ש... שהמחלה התחילה לפני שבועות לפני שנה לפני לפני לפני...</t>
-  </si>
-  <si>
-    <t>... יכול להיות שהוא כל הזמן הזה?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">את זה אנחנו לא יכולים לדעת </t>
-  </si>
-  <si>
-    <t>אני הייתי צריכה בתור אמא שלו להביא אותו לבדיקות קודם?</t>
-  </si>
-  <si>
     <t>לא, לא. את לא יכולה לעלות על זה כי הוא בכלל לא היה עם תלונות.</t>
   </si>
   <si>
@@ -427,28 +433,28 @@
     <t>זה לא מחלה ש... שיכולים לתת לה קצת תרופה, וזהו.</t>
   </si>
   <si>
+    <t>אז מה...</t>
+  </si>
+  <si>
+    <t>וזהו. זה מחלה אא שנשארת כל החיים איתו.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">זה כן לכל החיים? </t>
+  </si>
+  <si>
+    <t>אי אפשר לרפא את זה?</t>
+  </si>
+  <si>
+    <t>לא. זה...</t>
+  </si>
+  <si>
+    <t>כשזה אצל ילדים זה...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">זה מחלה שמחייבת אותו בתרופות ומנגנון וזה גם כל החיים אא </t>
+  </si>
+  <si>
     <t>gives-thera</t>
-  </si>
-  <si>
-    <t>אז מה...</t>
-  </si>
-  <si>
-    <t>וזהו. זה מחלה אא שנשארת כל החיים איתו.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">זה כן לכל החיים? </t>
-  </si>
-  <si>
-    <t>אי אפשר לרפא את זה?</t>
-  </si>
-  <si>
-    <t>לא. זה...</t>
-  </si>
-  <si>
-    <t>כשזה אצל ילדים זה...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">זה מחלה שמחייבת אותו בתרופות ומנגנון וזה גם כל החיים אא </t>
   </si>
   <si>
     <t xml:space="preserve">וואוו. וואוו. </t>
@@ -838,37 +844,37 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -879,40 +885,40 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -923,7 +929,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -934,29 +940,29 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -967,18 +973,18 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -989,24 +995,24 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1025,10 +1031,10 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1036,10 +1042,10 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1047,10 +1053,10 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1058,230 +1064,230 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
         <v>38</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
         <v>42</v>
-      </c>
-      <c r="B28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
         <v>63</v>
-      </c>
-      <c r="B45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1289,7 +1295,7 @@
         <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
         <v>65</v>
@@ -1300,10 +1306,10 @@
         <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1322,10 +1328,10 @@
         <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1336,7 +1342,7 @@
         <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1344,73 +1350,73 @@
         <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C53" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C57" t="s">
         <v>65</v>
@@ -1418,112 +1424,112 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C60" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C62" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C63" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
         <v>5</v>
-      </c>
-      <c r="C64" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C66" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C67" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1531,10 +1537,10 @@
         <v>90</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C68" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1542,10 +1548,10 @@
         <v>91</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1553,10 +1559,10 @@
         <v>92</v>
       </c>
       <c r="B70" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1564,10 +1570,10 @@
         <v>93</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1575,10 +1581,10 @@
         <v>94</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C72" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1586,10 +1592,10 @@
         <v>95</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1597,10 +1603,10 @@
         <v>96</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1608,10 +1614,10 @@
         <v>97</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1619,10 +1625,10 @@
         <v>98</v>
       </c>
       <c r="B76" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C76" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1630,10 +1636,10 @@
         <v>99</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1641,10 +1647,10 @@
         <v>100</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1652,10 +1658,10 @@
         <v>101</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1663,10 +1669,10 @@
         <v>102</v>
       </c>
       <c r="B80" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C80" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1674,10 +1680,10 @@
         <v>103</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1685,10 +1691,10 @@
         <v>104</v>
       </c>
       <c r="B82" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C82" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1696,10 +1702,10 @@
         <v>105</v>
       </c>
       <c r="B83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C83" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1707,10 +1713,10 @@
         <v>106</v>
       </c>
       <c r="B84" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C84" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1718,10 +1724,10 @@
         <v>107</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1729,10 +1735,10 @@
         <v>108</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1743,7 +1749,7 @@
         <v>65</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1751,10 +1757,10 @@
         <v>110</v>
       </c>
       <c r="B88" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C88" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1762,183 +1768,183 @@
         <v>111</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C89" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B90" t="s">
         <v>65</v>
       </c>
       <c r="C90" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C95" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" t="s">
         <v>9</v>
-      </c>
-      <c r="C96" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="C97" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B98" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C98" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B100" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B101" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C101" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B102" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C102" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B103" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C103" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C104" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B105" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C105" t="s">
         <v>65</v>
@@ -1946,161 +1952,161 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B108" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C108" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B109" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B110" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="C110" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B111" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B112" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C112" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B114" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C114" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B118" t="s">
         <v>65</v>
       </c>
       <c r="C118" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B119" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C119" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120" t="s">
         <v>65</v>
@@ -2111,46 +2117,46 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C121" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B123" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C123" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B124" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C124" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
